--- a/bilan prev.xlsx
+++ b/bilan prev.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\GitHub\MasterMind\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="8115" windowHeight="2895"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="8115" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -94,9 +99,6 @@
   </si>
   <si>
     <t>Version de base qui fonctionne</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>30 min</t>
@@ -127,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +160,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,10 +351,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -365,40 +375,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCF0C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCF0C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCF0C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCF0C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -408,6 +395,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -456,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +481,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,24 +701,14 @@
     <col min="1" max="1" width="49.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -742,7 +722,7 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -766,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -783,10 +763,10 @@
         <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -800,10 +780,10 @@
         <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -817,10 +797,10 @@
         <v>1000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -834,10 +814,10 @@
         <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -851,10 +831,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -868,10 +848,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -885,10 +865,10 @@
         <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -902,10 +882,10 @@
         <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -919,10 +899,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -936,10 +916,12 @@
         <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -953,10 +935,12 @@
         <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -970,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -987,10 +971,12 @@
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1004,10 +990,12 @@
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1021,10 +1009,12 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1038,10 +1028,12 @@
         <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1052,7 +1044,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1063,7 +1055,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>

--- a/bilan prev.xlsx
+++ b/bilan prev.xlsx
@@ -2,26 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\GitHub\MasterMind\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="8115" windowHeight="2895"/>
+    <workbookView xWindow="360" yWindow="945" windowWidth="24495" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -123,12 +128,48 @@
   </si>
   <si>
     <t>3H</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Aymeric</t>
+  </si>
+  <si>
+    <t>Le groupe</t>
+  </si>
+  <si>
+    <t>Jordan-Zakaria-Faiza</t>
+  </si>
+  <si>
+    <t>Zakaria-Faiza</t>
+  </si>
+  <si>
+    <t>Zakaria-Jordan-Faiza</t>
+  </si>
+  <si>
+    <t>haute</t>
+  </si>
+  <si>
+    <t>basse</t>
+  </si>
+  <si>
+    <t>Haute</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,12 +209,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -186,14 +233,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,152 +248,152 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -368,7 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,6 +426,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +555,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +775,10 @@
     <col min="1" max="1" width="49.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -722,10 +796,10 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -742,310 +816,494 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>100</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="D4" s="11">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="E4" s="16">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="19">
+        <v>41617</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="20">
+        <v>41617</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
+      <c r="D6" s="4">
+        <f>12*60</f>
+        <v>720</v>
+      </c>
+      <c r="E6" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="20">
+        <v>41598</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1000</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
+      <c r="D7" s="4">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="E7" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="20">
+        <v>41600</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
+      <c r="D8" s="4">
+        <f>3*3*60</f>
+        <v>540</v>
+      </c>
+      <c r="E8" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="20">
+        <v>41607</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
+      <c r="D9" s="4">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="20">
+        <v>41610</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
+      <c r="E10" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="20">
+        <v>41617</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
+      <c r="D11" s="4">
+        <f>2*3*60</f>
+        <v>360</v>
+      </c>
+      <c r="E11" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="20">
+        <v>41617</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="20">
+        <v>41600</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="4">
+        <v>15</v>
+      </c>
+      <c r="E13" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="20">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="27">
         <v>50</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="18">
+      <c r="D14" s="28">
         <v>0</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="27">
         <v>70</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18">
+      <c r="D15" s="28">
         <v>0</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
+      <c r="D16" s="4">
+        <v>60</v>
+      </c>
+      <c r="E16" s="17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="20">
+        <v>41605</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="18">
+      <c r="D17" s="4">
+        <v>60</v>
+      </c>
+      <c r="E17" s="17">
         <v>1</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="F17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="20">
+        <v>41605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="27">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="18">
+      <c r="D18" s="28">
         <v>0</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="18">
+      <c r="D19" s="4">
+        <v>120</v>
+      </c>
+      <c r="E19" s="17">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="F19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="20">
+        <v>41598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="27">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="18">
+      <c r="D20" s="28">
         <v>0</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
@@ -1055,8 +1313,8 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1075,7 +1333,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1088,6 +1351,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1100,5 +1368,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>